--- a/output/ejecucion_1/gridsearch_results/base1/b1_ci_results_gs_xgb_nrs.xlsx
+++ b/output/ejecucion_1/gridsearch_results/base1/b1_ci_results_gs_xgb_nrs.xlsx
@@ -534,16 +534,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>469.5255207538605</v>
+        <v>161.9419643878937</v>
       </c>
       <c r="C2">
-        <v>69.71138677670412</v>
+        <v>0.3660026642539724</v>
       </c>
       <c r="D2">
-        <v>7.734609317779541</v>
+        <v>1.6385995388031</v>
       </c>
       <c r="E2">
-        <v>0.8473018089917523</v>
+        <v>0.03638119533530275</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -587,16 +587,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>927.8460503101348</v>
+        <v>330.6253034591675</v>
       </c>
       <c r="C3">
-        <v>79.61292386702912</v>
+        <v>2.442393107128127</v>
       </c>
       <c r="D3">
-        <v>8.013702964782714</v>
+        <v>1.691832399368286</v>
       </c>
       <c r="E3">
-        <v>0.1501286104984703</v>
+        <v>0.04152285251884878</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -640,16 +640,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1671.655371046066</v>
+        <v>657.8522876739502</v>
       </c>
       <c r="C4">
-        <v>146.6823208275159</v>
+        <v>3.657536074083557</v>
       </c>
       <c r="D4">
-        <v>7.315454530715942</v>
+        <v>1.821935796737671</v>
       </c>
       <c r="E4">
-        <v>0.765203950841611</v>
+        <v>0.1585939345128875</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -693,16 +693,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>458.1007054328919</v>
+        <v>169.9950989246368</v>
       </c>
       <c r="C5">
-        <v>67.07657073005356</v>
+        <v>2.36209444418793</v>
       </c>
       <c r="D5">
-        <v>7.54940767288208</v>
+        <v>1.69543628692627</v>
       </c>
       <c r="E5">
-        <v>0.4418974963705454</v>
+        <v>0.06191757124431183</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -746,16 +746,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>784.3761084556579</v>
+        <v>331.1381764411926</v>
       </c>
       <c r="C6">
-        <v>92.84864992105072</v>
+        <v>0.9196429678536759</v>
       </c>
       <c r="D6">
-        <v>6.278886222839356</v>
+        <v>1.968860912322998</v>
       </c>
       <c r="E6">
-        <v>0.4484679163211925</v>
+        <v>0.2356524003722107</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -799,16 +799,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1324.538802051544</v>
+        <v>660.6188005924225</v>
       </c>
       <c r="C7">
-        <v>192.826661821121</v>
+        <v>1.924461351001752</v>
       </c>
       <c r="D7">
-        <v>5.683409023284912</v>
+        <v>1.837553977966309</v>
       </c>
       <c r="E7">
-        <v>0.394190255504986</v>
+        <v>0.2177630975062967</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -852,16 +852,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>336.7947437286377</v>
+        <v>172.5016034126282</v>
       </c>
       <c r="C8">
-        <v>26.36166949172329</v>
+        <v>1.709480852340438</v>
       </c>
       <c r="D8">
-        <v>5.343185949325561</v>
+        <v>1.78572883605957</v>
       </c>
       <c r="E8">
-        <v>1.650424118497972</v>
+        <v>0.2291547222481176</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -905,16 +905,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>623.7266296863556</v>
+        <v>332.5146837234497</v>
       </c>
       <c r="C9">
-        <v>82.33428731285122</v>
+        <v>1.892363378821995</v>
       </c>
       <c r="D9">
-        <v>4.837588357925415</v>
+        <v>1.850902271270752</v>
       </c>
       <c r="E9">
-        <v>0.8276833015768578</v>
+        <v>0.1803837276169671</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -958,16 +958,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1297.710693502426</v>
+        <v>659.1947891235352</v>
       </c>
       <c r="C10">
-        <v>81.78127888887265</v>
+        <v>4.391378112339347</v>
       </c>
       <c r="D10">
-        <v>3.9455726146698</v>
+        <v>1.745503616333008</v>
       </c>
       <c r="E10">
-        <v>0.9659513686469575</v>
+        <v>0.1495570587827174</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -1011,16 +1011,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>517.170558166504</v>
+        <v>273.8755764961243</v>
       </c>
       <c r="C11">
-        <v>38.98711128816808</v>
+        <v>2.014467950726404</v>
       </c>
       <c r="D11">
-        <v>4.487362480163574</v>
+        <v>1.680195999145508</v>
       </c>
       <c r="E11">
-        <v>1.215229279752197</v>
+        <v>0.0613857398344251</v>
       </c>
       <c r="F11">
         <v>2</v>
@@ -1064,16 +1064,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>947.432718038559</v>
+        <v>533.17073097229</v>
       </c>
       <c r="C12">
-        <v>95.56757703679997</v>
+        <v>1.15460117136436</v>
       </c>
       <c r="D12">
-        <v>7.151453161239624</v>
+        <v>1.731850147247314</v>
       </c>
       <c r="E12">
-        <v>1.562168314333117</v>
+        <v>0.1568064772251539</v>
       </c>
       <c r="F12">
         <v>2</v>
@@ -1117,16 +1117,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2395.506992053985</v>
+        <v>1063.094308376312</v>
       </c>
       <c r="C13">
-        <v>66.59438000912937</v>
+        <v>3.597990834486031</v>
       </c>
       <c r="D13">
-        <v>7.628850078582763</v>
+        <v>1.701994132995605</v>
       </c>
       <c r="E13">
-        <v>0.394110216304409</v>
+        <v>0.1143396499592568</v>
       </c>
       <c r="F13">
         <v>2</v>
@@ -1170,16 +1170,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>705.0728381156921</v>
+        <v>271.365793466568</v>
       </c>
       <c r="C14">
-        <v>24.65413331104939</v>
+        <v>1.47232186345623</v>
       </c>
       <c r="D14">
-        <v>7.532670831680297</v>
+        <v>1.704097032546997</v>
       </c>
       <c r="E14">
-        <v>0.2841325547809501</v>
+        <v>0.09460969435252703</v>
       </c>
       <c r="F14">
         <v>2</v>
@@ -1223,16 +1223,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1258.937936401367</v>
+        <v>532.5155857086181</v>
       </c>
       <c r="C15">
-        <v>201.058308183055</v>
+        <v>0.9439214851462323</v>
       </c>
       <c r="D15">
-        <v>7.545300388336182</v>
+        <v>1.696440029144287</v>
       </c>
       <c r="E15">
-        <v>0.6595039029091085</v>
+        <v>0.1631662953975631</v>
       </c>
       <c r="F15">
         <v>2</v>
@@ -1276,16 +1276,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2554.753104639053</v>
+        <v>1056.032032823563</v>
       </c>
       <c r="C16">
-        <v>109.1063885817749</v>
+        <v>1.300196273474587</v>
       </c>
       <c r="D16">
-        <v>7.754406881332398</v>
+        <v>1.827653026580811</v>
       </c>
       <c r="E16">
-        <v>0.5128196821187994</v>
+        <v>0.1964627566479237</v>
       </c>
       <c r="F16">
         <v>2</v>
@@ -1329,16 +1329,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>633.2246302127838</v>
+        <v>269.8764802932739</v>
       </c>
       <c r="C17">
-        <v>48.34591889553465</v>
+        <v>0.848837269330167</v>
       </c>
       <c r="D17">
-        <v>7.320623970031738</v>
+        <v>1.711333084106445</v>
       </c>
       <c r="E17">
-        <v>1.322652297807027</v>
+        <v>0.09356180968766163</v>
       </c>
       <c r="F17">
         <v>2</v>
@@ -1382,16 +1382,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1283.789289093017</v>
+        <v>527.7809926509857</v>
       </c>
       <c r="C18">
-        <v>39.47662228728062</v>
+        <v>5.331695222945193</v>
       </c>
       <c r="D18">
-        <v>7.29637598991394</v>
+        <v>1.821272468566895</v>
       </c>
       <c r="E18">
-        <v>0.8624137594343776</v>
+        <v>0.3407503502012928</v>
       </c>
       <c r="F18">
         <v>2</v>
@@ -1435,16 +1435,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2217.799827766418</v>
+        <v>856.1849995136261</v>
       </c>
       <c r="C19">
-        <v>142.905590952588</v>
+        <v>28.24730491375309</v>
       </c>
       <c r="D19">
-        <v>4.628844594955444</v>
+        <v>1.193986320495605</v>
       </c>
       <c r="E19">
-        <v>0.7823396319638181</v>
+        <v>0.262839792029862</v>
       </c>
       <c r="F19">
         <v>2</v>
